--- a/data/trans_dic/P19C11_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C11_2023-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 5,86</t>
+          <t>2,8; 6,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,88; 4,94</t>
+          <t>2,79; 4,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,1; 4,82</t>
+          <t>3,18; 4,93</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 4,97</t>
+          <t>3,26; 4,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 4,48</t>
+          <t>2,89; 4,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,32; 4,48</t>
+          <t>3,33; 4,48</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,66; 8,41</t>
+          <t>4,53; 8,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 6,78</t>
+          <t>3,94; 6,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,56; 6,92</t>
+          <t>4,65; 6,86</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,74; 5,24</t>
+          <t>3,83; 5,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 4,64</t>
+          <t>3,49; 4,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,72; 4,7</t>
+          <t>3,81; 4,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C11_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C11_2023-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,8; 6,08</t>
+          <t>2,78; 5,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,79; 4,93</t>
+          <t>2,88; 4,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,18; 4,93</t>
+          <t>3,1; 4,82</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 4,96</t>
+          <t>3,19; 4,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 4,45</t>
+          <t>2,97; 4,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,33; 4,48</t>
+          <t>3,32; 4,48</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,53; 8,24</t>
+          <t>4,66; 8,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,94; 6,75</t>
+          <t>3,95; 6,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,65; 6,86</t>
+          <t>4,56; 6,92</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,83; 5,3</t>
+          <t>3,74; 5,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 4,55</t>
+          <t>3,49; 4,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,81; 4,71</t>
+          <t>3,72; 4,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C11_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C11_2023-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>4,04%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 5,86</t>
+          <t>2,86; 5,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,88; 4,94</t>
+          <t>2,98; 5,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,1; 4,82</t>
+          <t>3,16; 4,91</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,55%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 4,97</t>
+          <t>2,48; 4,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 4,48</t>
+          <t>2,45; 4,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,32; 4,48</t>
+          <t>2,78; 4,18</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>5,65%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,66; 8,41</t>
+          <t>4,62; 8,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 6,78</t>
+          <t>3,92; 6,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,56; 6,92</t>
+          <t>4,54; 6,9</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>4,02%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,74; 5,24</t>
+          <t>3,24; 4,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 4,64</t>
+          <t>3,2; 4,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,72; 4,7</t>
+          <t>3,36; 4,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C11_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C11_2023-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,93</t>
+          <t>2,79; 5,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,98; 5,07</t>
+          <t>2,92; 5,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,16; 4,91</t>
+          <t>3,27; 5,05</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,48; 4,58</t>
+          <t>2,59; 4,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,45; 4,26</t>
+          <t>2,48; 4,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 4,18</t>
+          <t>2,8; 4,28</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,62; 8,31</t>
+          <t>4,54; 8,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,92; 6,7</t>
+          <t>3,85; 6,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,54; 6,9</t>
+          <t>4,63; 6,82</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,24; 4,91</t>
+          <t>3,28; 5,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,2; 4,53</t>
+          <t>3,11; 4,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,36; 4,51</t>
+          <t>3,41; 4,5</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por implantes / solo 2023</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>20504</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>28265</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>48769</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>13503; 28893</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>21050; 36901</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>39485; 60859</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>81163</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>76000</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>157163</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>57683; 103726</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>54573; 94169</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>124132; 189615</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>39008</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>33467</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>72474</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>28634; 51150</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>25116; 43031</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>59427; 87553</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>140674</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>137732</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>278406</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>109835; 168281</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>111053; 160887</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>236224; 311272</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>